--- a/biology/Zoologie/Hogna_ligata/Hogna_ligata.xlsx
+++ b/biology/Zoologie/Hogna_ligata/Hogna_ligata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hogna ligata est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hogna ligata est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesure de 4,20 à 5,00 mm de long sur de 3,05 à 3,60 mm et la carapace des femelles mesure de 4,10 à 5,15 mm de long sur de 3,10 à 3,75 mm[2].
-Le mâle décrit par Sherwood, Henrard, Logunov et Fowler en 2023 mesure 10,8 mm et la femelle 12,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesure de 4,20 à 5,00 mm de long sur de 3,05 à 3,60 mm et la carapace des femelles mesure de 4,10 à 5,15 mm de long sur de 3,10 à 3,75 mm.
+Le mâle décrit par Sherwood, Henrard, Logunov et Fowler en 2023 mesure 10,8 mm et la femelle 12,5 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Lycosa ligata par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Vesubia par Roewer en 1955[4], dans le genre Lynxosa par Tongiorgi en 1977[2] puis dans le genre Hogna par Wunderlich en 1992[5].
-Tarentula sanctae-helenae[6] a été placée en synonymie par Tongiorgi en 1977[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Lycosa ligata par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Vesubia par Roewer en 1955, dans le genre Lynxosa par Tongiorgi en 1977 puis dans le genre Hogna par Wunderlich en 1992.
+Tarentula sanctae-helenae a été placée en synonymie par Tongiorgi en 1977.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1870 : « Notes on some spiders and scorpions from St Helena, with descriptions of new species. » Proceedings of the Zoological Society of London, vol. 1869, p. 531-544 (texte intégral).</t>
         </is>
